--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_268.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_268.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d225012-Reviews-Extended_Stay_America_Orange_County_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>303</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Anaheim-Convention-Ctr.h580293.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_268.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_268.xlsx
@@ -5519,7 +5519,7 @@
         <v>41260</v>
       </c>
       <c r="B4" t="n">
-        <v>146526</v>
+        <v>177870</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -5720,7 +5720,7 @@
         <v>41260</v>
       </c>
       <c r="B7" t="n">
-        <v>146527</v>
+        <v>177871</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -5785,7 +5785,7 @@
         <v>41260</v>
       </c>
       <c r="B8" t="n">
-        <v>146528</v>
+        <v>177872</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -5860,7 +5860,7 @@
         <v>41260</v>
       </c>
       <c r="B9" t="n">
-        <v>146529</v>
+        <v>177873</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -5935,7 +5935,7 @@
         <v>41260</v>
       </c>
       <c r="B10" t="n">
-        <v>146530</v>
+        <v>177874</v>
       </c>
       <c r="C10" t="s">
         <v>121</v>
@@ -6000,7 +6000,7 @@
         <v>41260</v>
       </c>
       <c r="B11" t="n">
-        <v>146531</v>
+        <v>177875</v>
       </c>
       <c r="C11" t="s">
         <v>130</v>
@@ -6146,7 +6146,7 @@
         <v>41260</v>
       </c>
       <c r="B13" t="n">
-        <v>146532</v>
+        <v>177876</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -6215,7 +6215,7 @@
         <v>41260</v>
       </c>
       <c r="B14" t="n">
-        <v>146533</v>
+        <v>177877</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -6284,7 +6284,7 @@
         <v>41260</v>
       </c>
       <c r="B15" t="n">
-        <v>146534</v>
+        <v>177878</v>
       </c>
       <c r="C15" t="s">
         <v>168</v>
@@ -6349,7 +6349,7 @@
         <v>41260</v>
       </c>
       <c r="B16" t="n">
-        <v>146535</v>
+        <v>177879</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
@@ -6424,7 +6424,7 @@
         <v>41260</v>
       </c>
       <c r="B17" t="n">
-        <v>146536</v>
+        <v>177880</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -6493,7 +6493,7 @@
         <v>41260</v>
       </c>
       <c r="B18" t="n">
-        <v>146537</v>
+        <v>177881</v>
       </c>
       <c r="C18" t="s">
         <v>195</v>
@@ -6564,7 +6564,7 @@
         <v>41260</v>
       </c>
       <c r="B19" t="n">
-        <v>146538</v>
+        <v>177882</v>
       </c>
       <c r="C19" t="s">
         <v>205</v>
@@ -6635,7 +6635,7 @@
         <v>41260</v>
       </c>
       <c r="B20" t="n">
-        <v>146539</v>
+        <v>177883</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -6710,7 +6710,7 @@
         <v>41260</v>
       </c>
       <c r="B21" t="n">
-        <v>146540</v>
+        <v>177884</v>
       </c>
       <c r="C21" t="s">
         <v>224</v>
@@ -6785,7 +6785,7 @@
         <v>41260</v>
       </c>
       <c r="B22" t="n">
-        <v>146541</v>
+        <v>177885</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -6925,7 +6925,7 @@
         <v>41260</v>
       </c>
       <c r="B24" t="n">
-        <v>146542</v>
+        <v>177886</v>
       </c>
       <c r="C24" t="s">
         <v>251</v>
@@ -7000,7 +7000,7 @@
         <v>41260</v>
       </c>
       <c r="B25" t="n">
-        <v>146543</v>
+        <v>177887</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -7075,7 +7075,7 @@
         <v>41260</v>
       </c>
       <c r="B26" t="n">
-        <v>146544</v>
+        <v>177888</v>
       </c>
       <c r="C26" t="s">
         <v>267</v>
@@ -7140,7 +7140,7 @@
         <v>41260</v>
       </c>
       <c r="B27" t="n">
-        <v>146545</v>
+        <v>177889</v>
       </c>
       <c r="C27" t="s">
         <v>277</v>
@@ -7215,7 +7215,7 @@
         <v>41260</v>
       </c>
       <c r="B28" t="n">
-        <v>146546</v>
+        <v>177890</v>
       </c>
       <c r="C28" t="s">
         <v>286</v>
@@ -7280,7 +7280,7 @@
         <v>41260</v>
       </c>
       <c r="B29" t="n">
-        <v>146547</v>
+        <v>177891</v>
       </c>
       <c r="C29" t="s">
         <v>295</v>
@@ -7341,7 +7341,7 @@
         <v>41260</v>
       </c>
       <c r="B30" t="n">
-        <v>146548</v>
+        <v>177892</v>
       </c>
       <c r="C30" t="s">
         <v>304</v>
@@ -7416,7 +7416,7 @@
         <v>41260</v>
       </c>
       <c r="B31" t="n">
-        <v>146549</v>
+        <v>177893</v>
       </c>
       <c r="C31" t="s">
         <v>314</v>
@@ -7491,7 +7491,7 @@
         <v>41260</v>
       </c>
       <c r="B32" t="n">
-        <v>146550</v>
+        <v>177894</v>
       </c>
       <c r="C32" t="s">
         <v>323</v>
@@ -7562,7 +7562,7 @@
         <v>41260</v>
       </c>
       <c r="B33" t="n">
-        <v>146551</v>
+        <v>177895</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -7627,7 +7627,7 @@
         <v>41260</v>
       </c>
       <c r="B34" t="n">
-        <v>146552</v>
+        <v>177896</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -7757,7 +7757,7 @@
         <v>41260</v>
       </c>
       <c r="B36" t="n">
-        <v>146553</v>
+        <v>177897</v>
       </c>
       <c r="C36" t="s">
         <v>361</v>
@@ -7832,7 +7832,7 @@
         <v>41260</v>
       </c>
       <c r="B37" t="n">
-        <v>146554</v>
+        <v>177898</v>
       </c>
       <c r="C37" t="s">
         <v>369</v>
@@ -7897,7 +7897,7 @@
         <v>41260</v>
       </c>
       <c r="B38" t="n">
-        <v>146555</v>
+        <v>177899</v>
       </c>
       <c r="C38" t="s">
         <v>379</v>
@@ -7966,7 +7966,7 @@
         <v>41260</v>
       </c>
       <c r="B39" t="n">
-        <v>146556</v>
+        <v>177900</v>
       </c>
       <c r="C39" t="s">
         <v>388</v>
@@ -8106,7 +8106,7 @@
         <v>41260</v>
       </c>
       <c r="B41" t="n">
-        <v>146557</v>
+        <v>177901</v>
       </c>
       <c r="C41" t="s">
         <v>406</v>
@@ -8181,7 +8181,7 @@
         <v>41260</v>
       </c>
       <c r="B42" t="n">
-        <v>146558</v>
+        <v>146545</v>
       </c>
       <c r="C42" t="s">
         <v>415</v>
@@ -8252,7 +8252,7 @@
         <v>41260</v>
       </c>
       <c r="B43" t="n">
-        <v>146559</v>
+        <v>177902</v>
       </c>
       <c r="C43" t="s">
         <v>424</v>
@@ -8317,7 +8317,7 @@
         <v>41260</v>
       </c>
       <c r="B44" t="n">
-        <v>146560</v>
+        <v>177903</v>
       </c>
       <c r="C44" t="s">
         <v>432</v>
@@ -8392,7 +8392,7 @@
         <v>41260</v>
       </c>
       <c r="B45" t="n">
-        <v>146561</v>
+        <v>177904</v>
       </c>
       <c r="C45" t="s">
         <v>441</v>
@@ -8467,7 +8467,7 @@
         <v>41260</v>
       </c>
       <c r="B46" t="n">
-        <v>146562</v>
+        <v>177905</v>
       </c>
       <c r="C46" t="s">
         <v>450</v>
@@ -8542,7 +8542,7 @@
         <v>41260</v>
       </c>
       <c r="B47" t="n">
-        <v>146563</v>
+        <v>177906</v>
       </c>
       <c r="C47" t="s">
         <v>459</v>
@@ -8617,7 +8617,7 @@
         <v>41260</v>
       </c>
       <c r="B48" t="n">
-        <v>146564</v>
+        <v>177907</v>
       </c>
       <c r="C48" t="s">
         <v>469</v>
@@ -8686,7 +8686,7 @@
         <v>41260</v>
       </c>
       <c r="B49" t="n">
-        <v>146565</v>
+        <v>177908</v>
       </c>
       <c r="C49" t="s">
         <v>478</v>
@@ -8761,7 +8761,7 @@
         <v>41260</v>
       </c>
       <c r="B50" t="n">
-        <v>146566</v>
+        <v>177909</v>
       </c>
       <c r="C50" t="s">
         <v>487</v>
@@ -8836,7 +8836,7 @@
         <v>41260</v>
       </c>
       <c r="B51" t="n">
-        <v>146567</v>
+        <v>177910</v>
       </c>
       <c r="C51" t="s">
         <v>496</v>
@@ -8905,7 +8905,7 @@
         <v>41260</v>
       </c>
       <c r="B52" t="n">
-        <v>146568</v>
+        <v>177911</v>
       </c>
       <c r="C52" t="s">
         <v>505</v>
@@ -9039,7 +9039,7 @@
         <v>41260</v>
       </c>
       <c r="B54" t="n">
-        <v>146569</v>
+        <v>177912</v>
       </c>
       <c r="C54" t="s">
         <v>523</v>
@@ -9104,7 +9104,7 @@
         <v>41260</v>
       </c>
       <c r="B55" t="n">
-        <v>146570</v>
+        <v>177913</v>
       </c>
       <c r="C55" t="s">
         <v>533</v>
@@ -9169,7 +9169,7 @@
         <v>41260</v>
       </c>
       <c r="B56" t="n">
-        <v>146571</v>
+        <v>177914</v>
       </c>
       <c r="C56" t="s">
         <v>542</v>
@@ -9240,7 +9240,7 @@
         <v>41260</v>
       </c>
       <c r="B57" t="n">
-        <v>146572</v>
+        <v>177915</v>
       </c>
       <c r="C57" t="s">
         <v>552</v>
@@ -9311,7 +9311,7 @@
         <v>41260</v>
       </c>
       <c r="B58" t="n">
-        <v>146573</v>
+        <v>177916</v>
       </c>
       <c r="C58" t="s">
         <v>561</v>
@@ -9382,7 +9382,7 @@
         <v>41260</v>
       </c>
       <c r="B59" t="n">
-        <v>146574</v>
+        <v>177917</v>
       </c>
       <c r="C59" t="s">
         <v>571</v>
@@ -9447,7 +9447,7 @@
         <v>41260</v>
       </c>
       <c r="B60" t="n">
-        <v>146575</v>
+        <v>177918</v>
       </c>
       <c r="C60" t="s">
         <v>581</v>
@@ -9518,7 +9518,7 @@
         <v>41260</v>
       </c>
       <c r="B61" t="n">
-        <v>146576</v>
+        <v>177919</v>
       </c>
       <c r="C61" t="s">
         <v>590</v>
@@ -9589,7 +9589,7 @@
         <v>41260</v>
       </c>
       <c r="B62" t="n">
-        <v>146577</v>
+        <v>177920</v>
       </c>
       <c r="C62" t="s">
         <v>599</v>
@@ -9658,7 +9658,7 @@
         <v>41260</v>
       </c>
       <c r="B63" t="n">
-        <v>146578</v>
+        <v>177921</v>
       </c>
       <c r="C63" t="s">
         <v>609</v>
@@ -9729,7 +9729,7 @@
         <v>41260</v>
       </c>
       <c r="B64" t="n">
-        <v>146579</v>
+        <v>146546</v>
       </c>
       <c r="C64" t="s">
         <v>618</v>
@@ -9865,7 +9865,7 @@
         <v>41260</v>
       </c>
       <c r="B66" t="n">
-        <v>146580</v>
+        <v>177922</v>
       </c>
       <c r="C66" t="s">
         <v>633</v>
@@ -9934,7 +9934,7 @@
         <v>41260</v>
       </c>
       <c r="B67" t="n">
-        <v>146581</v>
+        <v>177923</v>
       </c>
       <c r="C67" t="s">
         <v>643</v>
@@ -10064,7 +10064,7 @@
         <v>41260</v>
       </c>
       <c r="B69" t="n">
-        <v>146582</v>
+        <v>177924</v>
       </c>
       <c r="C69" t="s">
         <v>662</v>
@@ -10200,7 +10200,7 @@
         <v>41260</v>
       </c>
       <c r="B71" t="n">
-        <v>146583</v>
+        <v>177925</v>
       </c>
       <c r="C71" t="s">
         <v>680</v>
@@ -10267,7 +10267,7 @@
         <v>41260</v>
       </c>
       <c r="B72" t="n">
-        <v>146584</v>
+        <v>177926</v>
       </c>
       <c r="C72" t="s">
         <v>690</v>
@@ -10401,7 +10401,7 @@
         <v>41260</v>
       </c>
       <c r="B74" t="n">
-        <v>146585</v>
+        <v>177927</v>
       </c>
       <c r="C74" t="s">
         <v>708</v>
@@ -10472,7 +10472,7 @@
         <v>41260</v>
       </c>
       <c r="B75" t="n">
-        <v>146586</v>
+        <v>177928</v>
       </c>
       <c r="C75" t="s">
         <v>718</v>
@@ -10541,7 +10541,7 @@
         <v>41260</v>
       </c>
       <c r="B76" t="n">
-        <v>146587</v>
+        <v>177929</v>
       </c>
       <c r="C76" t="s">
         <v>727</v>
@@ -10606,7 +10606,7 @@
         <v>41260</v>
       </c>
       <c r="B77" t="n">
-        <v>146588</v>
+        <v>177930</v>
       </c>
       <c r="C77" t="s">
         <v>737</v>
@@ -10671,7 +10671,7 @@
         <v>41260</v>
       </c>
       <c r="B78" t="n">
-        <v>146589</v>
+        <v>177931</v>
       </c>
       <c r="C78" t="s">
         <v>746</v>
@@ -10736,7 +10736,7 @@
         <v>41260</v>
       </c>
       <c r="B79" t="n">
-        <v>146590</v>
+        <v>177932</v>
       </c>
       <c r="C79" t="s">
         <v>755</v>
@@ -10876,7 +10876,7 @@
         <v>41260</v>
       </c>
       <c r="B81" t="n">
-        <v>146591</v>
+        <v>177933</v>
       </c>
       <c r="C81" t="s">
         <v>774</v>
@@ -10943,7 +10943,7 @@
         <v>41260</v>
       </c>
       <c r="B82" t="n">
-        <v>146592</v>
+        <v>177934</v>
       </c>
       <c r="C82" t="s">
         <v>782</v>
@@ -11075,7 +11075,7 @@
         <v>41260</v>
       </c>
       <c r="B84" t="n">
-        <v>146593</v>
+        <v>177935</v>
       </c>
       <c r="C84" t="s">
         <v>798</v>
@@ -11140,7 +11140,7 @@
         <v>41260</v>
       </c>
       <c r="B85" t="n">
-        <v>146594</v>
+        <v>177936</v>
       </c>
       <c r="C85" t="s">
         <v>808</v>
@@ -11270,7 +11270,7 @@
         <v>41260</v>
       </c>
       <c r="B87" t="n">
-        <v>146595</v>
+        <v>177937</v>
       </c>
       <c r="C87" t="s">
         <v>822</v>
@@ -11542,7 +11542,7 @@
         <v>41260</v>
       </c>
       <c r="B91" t="n">
-        <v>146596</v>
+        <v>177938</v>
       </c>
       <c r="C91" t="s">
         <v>855</v>
@@ -11611,7 +11611,7 @@
         <v>41260</v>
       </c>
       <c r="B92" t="n">
-        <v>146597</v>
+        <v>177939</v>
       </c>
       <c r="C92" t="s">
         <v>864</v>
@@ -11743,7 +11743,7 @@
         <v>41260</v>
       </c>
       <c r="B94" t="n">
-        <v>146598</v>
+        <v>177940</v>
       </c>
       <c r="C94" t="s">
         <v>880</v>
@@ -11812,7 +11812,7 @@
         <v>41260</v>
       </c>
       <c r="B95" t="n">
-        <v>146557</v>
+        <v>146545</v>
       </c>
       <c r="C95" t="s">
         <v>415</v>
@@ -11879,7 +11879,7 @@
         <v>41260</v>
       </c>
       <c r="B96" t="n">
-        <v>146578</v>
+        <v>146546</v>
       </c>
       <c r="C96" t="s">
         <v>618</v>
@@ -11946,7 +11946,7 @@
         <v>41260</v>
       </c>
       <c r="B97" t="n">
-        <v>146599</v>
+        <v>177941</v>
       </c>
       <c r="C97" t="s">
         <v>902</v>
@@ -12080,7 +12080,7 @@
         <v>41260</v>
       </c>
       <c r="B99" t="n">
-        <v>146600</v>
+        <v>177942</v>
       </c>
       <c r="C99" t="s">
         <v>922</v>
@@ -12275,7 +12275,7 @@
         <v>41260</v>
       </c>
       <c r="B102" t="n">
-        <v>146601</v>
+        <v>177943</v>
       </c>
       <c r="C102" t="s">
         <v>945</v>
@@ -12346,7 +12346,7 @@
         <v>41260</v>
       </c>
       <c r="B103" t="n">
-        <v>146602</v>
+        <v>146553</v>
       </c>
       <c r="C103" t="s">
         <v>954</v>
@@ -12411,7 +12411,7 @@
         <v>41260</v>
       </c>
       <c r="B104" t="n">
-        <v>146603</v>
+        <v>177944</v>
       </c>
       <c r="C104" t="s">
         <v>964</v>
@@ -12478,7 +12478,7 @@
         <v>41260</v>
       </c>
       <c r="B105" t="n">
-        <v>146604</v>
+        <v>177945</v>
       </c>
       <c r="C105" t="s">
         <v>971</v>
@@ -12604,7 +12604,7 @@
         <v>41260</v>
       </c>
       <c r="B107" t="n">
-        <v>146605</v>
+        <v>177946</v>
       </c>
       <c r="C107" t="s">
         <v>985</v>
@@ -12673,7 +12673,7 @@
         <v>41260</v>
       </c>
       <c r="B108" t="n">
-        <v>146606</v>
+        <v>177947</v>
       </c>
       <c r="C108" t="s">
         <v>995</v>
@@ -12744,7 +12744,7 @@
         <v>41260</v>
       </c>
       <c r="B109" t="n">
-        <v>146607</v>
+        <v>177948</v>
       </c>
       <c r="C109" t="s">
         <v>1002</v>
@@ -12880,7 +12880,7 @@
         <v>41260</v>
       </c>
       <c r="B111" t="n">
-        <v>146608</v>
+        <v>177949</v>
       </c>
       <c r="C111" t="s">
         <v>1019</v>
@@ -12947,7 +12947,7 @@
         <v>41260</v>
       </c>
       <c r="B112" t="n">
-        <v>146609</v>
+        <v>177950</v>
       </c>
       <c r="C112" t="s">
         <v>1026</v>
@@ -13014,7 +13014,7 @@
         <v>41260</v>
       </c>
       <c r="B113" t="n">
-        <v>146610</v>
+        <v>177951</v>
       </c>
       <c r="C113" t="s">
         <v>1032</v>
@@ -13081,7 +13081,7 @@
         <v>41260</v>
       </c>
       <c r="B114" t="n">
-        <v>146611</v>
+        <v>177952</v>
       </c>
       <c r="C114" t="s">
         <v>1038</v>
@@ -13152,7 +13152,7 @@
         <v>41260</v>
       </c>
       <c r="B115" t="n">
-        <v>146612</v>
+        <v>177953</v>
       </c>
       <c r="C115" t="s">
         <v>1046</v>
@@ -13298,7 +13298,7 @@
         <v>41260</v>
       </c>
       <c r="B117" t="n">
-        <v>146613</v>
+        <v>177954</v>
       </c>
       <c r="C117" t="s">
         <v>1062</v>
@@ -13369,7 +13369,7 @@
         <v>41260</v>
       </c>
       <c r="B118" t="n">
-        <v>146614</v>
+        <v>177955</v>
       </c>
       <c r="C118" t="s">
         <v>1069</v>
@@ -13444,7 +13444,7 @@
         <v>41260</v>
       </c>
       <c r="B119" t="n">
-        <v>146615</v>
+        <v>177956</v>
       </c>
       <c r="C119" t="s">
         <v>1077</v>
@@ -13501,7 +13501,7 @@
         <v>41260</v>
       </c>
       <c r="B120" t="n">
-        <v>146616</v>
+        <v>177957</v>
       </c>
       <c r="C120" t="s">
         <v>1083</v>
@@ -13572,7 +13572,7 @@
         <v>41260</v>
       </c>
       <c r="B121" t="n">
-        <v>146617</v>
+        <v>177958</v>
       </c>
       <c r="C121" t="s">
         <v>1091</v>
@@ -13643,7 +13643,7 @@
         <v>41260</v>
       </c>
       <c r="B122" t="n">
-        <v>146601</v>
+        <v>146553</v>
       </c>
       <c r="C122" t="s">
         <v>954</v>
@@ -13708,7 +13708,7 @@
         <v>41260</v>
       </c>
       <c r="B123" t="n">
-        <v>146618</v>
+        <v>177959</v>
       </c>
       <c r="C123" t="s">
         <v>1107</v>
@@ -13783,7 +13783,7 @@
         <v>41260</v>
       </c>
       <c r="B124" t="n">
-        <v>146619</v>
+        <v>177960</v>
       </c>
       <c r="C124" t="s">
         <v>1117</v>
@@ -13858,7 +13858,7 @@
         <v>41260</v>
       </c>
       <c r="B125" t="n">
-        <v>146620</v>
+        <v>177961</v>
       </c>
       <c r="C125" t="s">
         <v>1124</v>
@@ -13929,7 +13929,7 @@
         <v>41260</v>
       </c>
       <c r="B126" t="n">
-        <v>146621</v>
+        <v>177962</v>
       </c>
       <c r="C126" t="s">
         <v>1132</v>
@@ -13996,7 +13996,7 @@
         <v>41260</v>
       </c>
       <c r="B127" t="n">
-        <v>146622</v>
+        <v>177963</v>
       </c>
       <c r="C127" t="s">
         <v>1138</v>
@@ -14063,7 +14063,7 @@
         <v>41260</v>
       </c>
       <c r="B128" t="n">
-        <v>146623</v>
+        <v>177964</v>
       </c>
       <c r="C128" t="s">
         <v>1145</v>
@@ -14134,7 +14134,7 @@
         <v>41260</v>
       </c>
       <c r="B129" t="n">
-        <v>146624</v>
+        <v>177965</v>
       </c>
       <c r="C129" t="s">
         <v>1153</v>
@@ -14205,7 +14205,7 @@
         <v>41260</v>
       </c>
       <c r="B130" t="n">
-        <v>146625</v>
+        <v>177966</v>
       </c>
       <c r="C130" t="s">
         <v>1160</v>
@@ -14351,7 +14351,7 @@
         <v>41260</v>
       </c>
       <c r="B132" t="n">
-        <v>146626</v>
+        <v>177967</v>
       </c>
       <c r="C132" t="s">
         <v>1178</v>
@@ -14422,7 +14422,7 @@
         <v>41260</v>
       </c>
       <c r="B133" t="n">
-        <v>146627</v>
+        <v>177968</v>
       </c>
       <c r="C133" t="s">
         <v>1187</v>
@@ -14497,7 +14497,7 @@
         <v>41260</v>
       </c>
       <c r="B134" t="n">
-        <v>146628</v>
+        <v>177969</v>
       </c>
       <c r="C134" t="s">
         <v>1197</v>
@@ -14572,7 +14572,7 @@
         <v>41260</v>
       </c>
       <c r="B135" t="n">
-        <v>146629</v>
+        <v>177970</v>
       </c>
       <c r="C135" t="s">
         <v>1206</v>
@@ -14639,7 +14639,7 @@
         <v>41260</v>
       </c>
       <c r="B136" t="n">
-        <v>146630</v>
+        <v>177971</v>
       </c>
       <c r="C136" t="s">
         <v>1213</v>
@@ -14781,7 +14781,7 @@
         <v>41260</v>
       </c>
       <c r="B138" t="n">
-        <v>146631</v>
+        <v>177972</v>
       </c>
       <c r="C138" t="s">
         <v>1227</v>
@@ -14856,7 +14856,7 @@
         <v>41260</v>
       </c>
       <c r="B139" t="n">
-        <v>146632</v>
+        <v>177973</v>
       </c>
       <c r="C139" t="s">
         <v>1237</v>
@@ -14927,7 +14927,7 @@
         <v>41260</v>
       </c>
       <c r="B140" t="n">
-        <v>146633</v>
+        <v>177974</v>
       </c>
       <c r="C140" t="s">
         <v>1246</v>
@@ -15073,7 +15073,7 @@
         <v>41260</v>
       </c>
       <c r="B142" t="n">
-        <v>146634</v>
+        <v>177975</v>
       </c>
       <c r="C142" t="s">
         <v>1265</v>
@@ -15144,7 +15144,7 @@
         <v>41260</v>
       </c>
       <c r="B143" t="n">
-        <v>146635</v>
+        <v>177976</v>
       </c>
       <c r="C143" t="s">
         <v>1272</v>
@@ -15219,7 +15219,7 @@
         <v>41260</v>
       </c>
       <c r="B144" t="n">
-        <v>146636</v>
+        <v>177977</v>
       </c>
       <c r="C144" t="s">
         <v>1281</v>
@@ -15294,7 +15294,7 @@
         <v>41260</v>
       </c>
       <c r="B145" t="n">
-        <v>146637</v>
+        <v>177978</v>
       </c>
       <c r="C145" t="s">
         <v>1290</v>
@@ -15369,7 +15369,7 @@
         <v>41260</v>
       </c>
       <c r="B146" t="n">
-        <v>146638</v>
+        <v>177979</v>
       </c>
       <c r="C146" t="s">
         <v>1296</v>
@@ -15440,7 +15440,7 @@
         <v>41260</v>
       </c>
       <c r="B147" t="n">
-        <v>146639</v>
+        <v>177980</v>
       </c>
       <c r="C147" t="s">
         <v>1305</v>
@@ -15515,7 +15515,7 @@
         <v>41260</v>
       </c>
       <c r="B148" t="n">
-        <v>146640</v>
+        <v>177981</v>
       </c>
       <c r="C148" t="s">
         <v>1314</v>
@@ -15590,7 +15590,7 @@
         <v>41260</v>
       </c>
       <c r="B149" t="n">
-        <v>146641</v>
+        <v>177982</v>
       </c>
       <c r="C149" t="s">
         <v>1323</v>
@@ -15665,7 +15665,7 @@
         <v>41260</v>
       </c>
       <c r="B150" t="n">
-        <v>146642</v>
+        <v>177983</v>
       </c>
       <c r="C150" t="s">
         <v>1333</v>
@@ -15736,7 +15736,7 @@
         <v>41260</v>
       </c>
       <c r="B151" t="n">
-        <v>146643</v>
+        <v>177984</v>
       </c>
       <c r="C151" t="s">
         <v>1340</v>
@@ -15807,7 +15807,7 @@
         <v>41260</v>
       </c>
       <c r="B152" t="n">
-        <v>146644</v>
+        <v>177985</v>
       </c>
       <c r="C152" t="s">
         <v>1349</v>
@@ -15878,7 +15878,7 @@
         <v>41260</v>
       </c>
       <c r="B153" t="n">
-        <v>146645</v>
+        <v>177986</v>
       </c>
       <c r="C153" t="s">
         <v>1358</v>
@@ -15953,7 +15953,7 @@
         <v>41260</v>
       </c>
       <c r="B154" t="n">
-        <v>146646</v>
+        <v>177987</v>
       </c>
       <c r="C154" t="s">
         <v>1368</v>
@@ -16028,7 +16028,7 @@
         <v>41260</v>
       </c>
       <c r="B155" t="n">
-        <v>146647</v>
+        <v>177988</v>
       </c>
       <c r="C155" t="s">
         <v>1375</v>
@@ -16099,7 +16099,7 @@
         <v>41260</v>
       </c>
       <c r="B156" t="n">
-        <v>146648</v>
+        <v>177989</v>
       </c>
       <c r="C156" t="s">
         <v>1384</v>
@@ -16174,7 +16174,7 @@
         <v>41260</v>
       </c>
       <c r="B157" t="n">
-        <v>146649</v>
+        <v>177990</v>
       </c>
       <c r="C157" t="s">
         <v>1393</v>
@@ -16249,7 +16249,7 @@
         <v>41260</v>
       </c>
       <c r="B158" t="n">
-        <v>146650</v>
+        <v>177991</v>
       </c>
       <c r="C158" t="s">
         <v>1402</v>
@@ -16320,7 +16320,7 @@
         <v>41260</v>
       </c>
       <c r="B159" t="n">
-        <v>146651</v>
+        <v>177992</v>
       </c>
       <c r="C159" t="s">
         <v>1411</v>
@@ -16395,7 +16395,7 @@
         <v>41260</v>
       </c>
       <c r="B160" t="n">
-        <v>146652</v>
+        <v>177993</v>
       </c>
       <c r="C160" t="s">
         <v>1421</v>
@@ -16545,7 +16545,7 @@
         <v>41260</v>
       </c>
       <c r="B162" t="n">
-        <v>146653</v>
+        <v>177994</v>
       </c>
       <c r="C162" t="s">
         <v>1440</v>
@@ -16616,7 +16616,7 @@
         <v>41260</v>
       </c>
       <c r="B163" t="n">
-        <v>146654</v>
+        <v>177995</v>
       </c>
       <c r="C163" t="s">
         <v>1449</v>
@@ -16766,7 +16766,7 @@
         <v>41260</v>
       </c>
       <c r="B165" t="n">
-        <v>146655</v>
+        <v>177996</v>
       </c>
       <c r="C165" t="s">
         <v>1469</v>
@@ -16916,7 +16916,7 @@
         <v>41260</v>
       </c>
       <c r="B167" t="n">
-        <v>146557</v>
+        <v>146545</v>
       </c>
       <c r="C167" t="s">
         <v>415</v>
@@ -16991,7 +16991,7 @@
         <v>41260</v>
       </c>
       <c r="B168" t="n">
-        <v>146656</v>
+        <v>177997</v>
       </c>
       <c r="C168" t="s">
         <v>1495</v>
@@ -17066,7 +17066,7 @@
         <v>41260</v>
       </c>
       <c r="B169" t="n">
-        <v>146657</v>
+        <v>177998</v>
       </c>
       <c r="C169" t="s">
         <v>1502</v>
@@ -17216,7 +17216,7 @@
         <v>41260</v>
       </c>
       <c r="B171" t="n">
-        <v>146658</v>
+        <v>177999</v>
       </c>
       <c r="C171" t="s">
         <v>1517</v>
@@ -17291,7 +17291,7 @@
         <v>41260</v>
       </c>
       <c r="B172" t="n">
-        <v>146659</v>
+        <v>178000</v>
       </c>
       <c r="C172" t="s">
         <v>1524</v>
@@ -17364,7 +17364,7 @@
         <v>41260</v>
       </c>
       <c r="B173" t="n">
-        <v>146660</v>
+        <v>178001</v>
       </c>
       <c r="C173" t="s">
         <v>1530</v>
@@ -17439,7 +17439,7 @@
         <v>41260</v>
       </c>
       <c r="B174" t="n">
-        <v>146661</v>
+        <v>178002</v>
       </c>
       <c r="C174" t="s">
         <v>1540</v>
@@ -17510,7 +17510,7 @@
         <v>41260</v>
       </c>
       <c r="B175" t="n">
-        <v>146662</v>
+        <v>178003</v>
       </c>
       <c r="C175" t="s">
         <v>1547</v>
